--- a/Tables/MG_peak_area.xlsx
+++ b/Tables/MG_peak_area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5222B-93D9-8441-AE7E-5564FC6F8283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE15AD-AC8C-1340-A3DF-B5DC3789F639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="2140" windowWidth="10000" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16260" yWindow="1440" windowWidth="18220" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
     <t>Van__3x3_RRM_Calibration_2000.0</t>
   </si>
   <si>
-    <t>Number of sigmas</t>
+    <t>Number of sigmas MG</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Tables/MG_peak_area.xlsx
+++ b/Tables/MG_peak_area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE15AD-AC8C-1340-A3DF-B5DC3789F639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C65A7D-D5C2-3143-857D-CDD393F729FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="1440" windowWidth="18220" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10580" yWindow="10020" windowWidth="18220" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
